--- a/data/trans_bre/P16A13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Edad-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01311887883324218</v>
+        <v>0.1320895400400379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.394866551509563</v>
+        <v>-2.043067134032183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.041964698769037</v>
+        <v>-1.139835838508076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.757258086201756</v>
+        <v>-2.783056160092782</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6442847375762897</v>
+        <v>-0.4033732255334399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9478841746685617</v>
+        <v>-0.9241618572205306</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -688,20 +688,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.706814480903303</v>
+        <v>3.043223780967143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7858676315515605</v>
+        <v>0.7930869583624449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.089290892036343</v>
+        <v>2.120841771221874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.002085128321692</v>
+        <v>1.042168346856907</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.392678851218281</v>
+        <v>1.850305956453614</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -727,7 +727,7 @@
         <v>-0.07580304674112658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04517722732855639</v>
+        <v>0.04517722732855622</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.302916897198174</v>
@@ -739,7 +739,7 @@
         <v>-0.04466077554453486</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03052894365784723</v>
+        <v>0.03052894365784712</v>
       </c>
     </row>
     <row r="8">
@@ -750,28 +750,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.811340981621712</v>
+        <v>-1.717607594813099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.791393443676857</v>
+        <v>-1.774003575836651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.588122619539145</v>
+        <v>-1.622256931921065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.819229838071592</v>
+        <v>-1.628669943308225</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8114658941445538</v>
+        <v>-0.7499392026451442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6091152608824288</v>
+        <v>-0.6145959644150872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6467944826282001</v>
+        <v>-0.6908586307585605</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7452063499062045</v>
+        <v>-0.7357906156711869</v>
       </c>
     </row>
     <row r="9">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7596794765802017</v>
+        <v>0.7603142354780211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.462519237998385</v>
+        <v>1.539109159393256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.477656791864055</v>
+        <v>1.56430087300987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.855327681618214</v>
+        <v>1.726858078088627</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9035694811820292</v>
+        <v>0.8593304212288347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.181280125400399</v>
+        <v>1.116214584876513</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.701122624131693</v>
+        <v>1.828829520922012</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.912661806960288</v>
+        <v>2.608733143330056</v>
       </c>
     </row>
     <row r="10">
@@ -839,7 +839,7 @@
         <v>-0.1043548268823985</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8540861499377933</v>
+        <v>0.8540861499377937</v>
       </c>
     </row>
     <row r="11">
@@ -850,28 +850,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.171047762752106</v>
+        <v>-2.270109970290522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.378451776473414</v>
+        <v>-1.150718751179904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.688954770166986</v>
+        <v>-1.630786168124281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1058838319443826</v>
+        <v>-0.1719952324757557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6715721451024037</v>
+        <v>-0.6520621195267365</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4062372935455176</v>
+        <v>-0.3796982302838415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6361573098891571</v>
+        <v>-0.6371081637167387</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08323803828793995</v>
+        <v>-0.1559987489621726</v>
       </c>
     </row>
     <row r="12">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.156895581174457</v>
+        <v>0.9774130868556068</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.322429109007973</v>
+        <v>2.613075572633241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.439252177891827</v>
+        <v>1.272115173203174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.889647354624324</v>
+        <v>2.842524425151644</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9381160790910608</v>
+        <v>0.773950702188008</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.356794653216552</v>
+        <v>1.427376133662862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.357955268837829</v>
+        <v>1.171288620480929</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.675262571980318</v>
+        <v>3.130452825407539</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>-0.3704704313196184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.429382540167922</v>
+        <v>-1.429382540167921</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5574308429106331</v>
@@ -939,7 +939,7 @@
         <v>-0.1690030483057419</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2306267177118539</v>
+        <v>-0.2306267177118538</v>
       </c>
     </row>
     <row r="14">
@@ -950,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7188337884088998</v>
+        <v>-0.7872902125170513</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.914042728069182</v>
+        <v>-1.781495491128484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.110617885928073</v>
+        <v>-2.018365080741067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.70392230568931</v>
+        <v>-3.754642723777383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2419725892376881</v>
+        <v>-0.2613877140786746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2824312030021801</v>
+        <v>-0.2882341678275608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6647167717770971</v>
+        <v>-0.6550980603325224</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4686348432684093</v>
+        <v>-0.4757094942882184</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.807660048762639</v>
+        <v>3.701488012868189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.882434335438421</v>
+        <v>4.040737591429147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.166787094989687</v>
+        <v>1.362146292705421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6950313380443147</v>
+        <v>0.7756150077988746</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.379464387900943</v>
+        <v>2.14704479243262</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.023252993797357</v>
+        <v>1.066520065381295</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.008208809492129</v>
+        <v>1.12864159377181</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.157304912919234</v>
+        <v>0.1624068708222723</v>
       </c>
     </row>
     <row r="16">
@@ -1050,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.096624917361512</v>
+        <v>-0.9705163671774044</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8825471331614145</v>
+        <v>0.9992651271042626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5728608629588415</v>
+        <v>-0.672248742736722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3797769846095128</v>
+        <v>-0.804893383120959</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2383342827356285</v>
+        <v>-0.2289477696402871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1136506966984209</v>
+        <v>0.1795845863923311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1025145228688018</v>
+        <v>-0.1124240110308646</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.03503714049850606</v>
+        <v>-0.08464463991807603</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.74889439960854</v>
+        <v>4.849200380829462</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.114315792457565</v>
+        <v>6.887335490810314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.155131009128374</v>
+        <v>5.876295083634093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.836344272313973</v>
+        <v>4.977330882870207</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.761199837027598</v>
+        <v>1.709151066720089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.318430114847591</v>
+        <v>2.886355575055734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.667557855539965</v>
+        <v>1.660244219571715</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.781113354941684</v>
+        <v>0.7803723947225564</v>
       </c>
     </row>
     <row r="19">
@@ -1127,7 +1127,7 @@
         <v>1.253901684683154</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.459706433759303</v>
+        <v>3.459706433759299</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7506176709670119</v>
@@ -1139,7 +1139,7 @@
         <v>0.2451440166320909</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2984709807263575</v>
+        <v>0.2984709807263572</v>
       </c>
     </row>
     <row r="20">
@@ -1150,28 +1150,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.6891518029881764</v>
+        <v>-0.5798116365295641</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.9781524734305519</v>
+        <v>-1.107518661732585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.120671005731349</v>
+        <v>-2.413122808599634</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.4405037842107975</v>
+        <v>0.03691902504265229</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1249287697402252</v>
+        <v>-0.109203469938597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1311088680754134</v>
+        <v>-0.1420874346977955</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3260941892733624</v>
+        <v>-0.3610565899345093</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0336956439635655</v>
+        <v>-0.002673254237156478</v>
       </c>
     </row>
     <row r="21">
@@ -1182,28 +1182,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.612381450013037</v>
+        <v>6.913793442320944</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.498882003157576</v>
+        <v>8.32130901391147</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.866783149465538</v>
+        <v>4.653496169703831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.733514733027884</v>
+        <v>6.894353329096854</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.544355443178442</v>
+        <v>2.723266125371416</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.724312161490818</v>
+        <v>1.717594038804449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.385643587269018</v>
+        <v>1.240287634668392</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.679815512521565</v>
+        <v>0.7166927505442927</v>
       </c>
     </row>
     <row r="22">
@@ -1250,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.175311232329364</v>
+        <v>-5.46831756000623</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.039573340366562</v>
+        <v>-7.237283006080522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6976702310272044</v>
+        <v>-0.5908972713744183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.113533244552705</v>
+        <v>2.343587756779602</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5221817063462934</v>
+        <v>-0.5296981192230188</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4831314410244308</v>
+        <v>-0.4588167523913692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.09448275253348797</v>
+        <v>-0.0741643956622227</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09876565843353305</v>
+        <v>0.09416011769225985</v>
       </c>
     </row>
     <row r="24">
@@ -1282,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.993334238349227</v>
+        <v>3.720659834609962</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.830141265910428</v>
+        <v>3.563035108663336</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.438849779464871</v>
+        <v>8.51343256465646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.28172625918932</v>
+        <v>11.6380842845308</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8159666498718107</v>
+        <v>0.7318036465677941</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2954017258004666</v>
+        <v>0.395295998524936</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.673992403151087</v>
+        <v>1.776571978963352</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6919987475575948</v>
+        <v>0.7025702339496103</v>
       </c>
     </row>
     <row r="25">
@@ -1327,7 +1327,7 @@
         <v>1.115891260467877</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.13822317890466</v>
+        <v>2.138223178904662</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3597171495261837</v>
@@ -1339,7 +1339,7 @@
         <v>0.3796474096243371</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3426783905205471</v>
+        <v>0.3426783905205475</v>
       </c>
     </row>
     <row r="26">
@@ -1350,28 +1350,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1322466058451585</v>
+        <v>0.04619597924819895</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09646167000862876</v>
+        <v>0.2466450282248621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05468154297793253</v>
+        <v>0.2258423595893305</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.042816438549482</v>
+        <v>1.12509667032792</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04071753886556172</v>
+        <v>0.01798437706846875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01992348413433915</v>
+        <v>0.04706023491810588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01066431851200995</v>
+        <v>0.06057905572928355</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1502582928080681</v>
+        <v>0.1618026188759291</v>
       </c>
     </row>
     <row r="27">
@@ -1382,28 +1382,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.794480038594323</v>
+        <v>1.784333636567706</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.363016245620394</v>
+        <v>2.422808604290563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.932151612809362</v>
+        <v>2.124847556335296</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.127119000947727</v>
+        <v>3.095086349342024</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8420494628715224</v>
+        <v>0.7807632170993936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6474593224358268</v>
+        <v>0.6631916611077922</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7566354833377399</v>
+        <v>0.8634820660166855</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5538411688150563</v>
+        <v>0.546337247212772</v>
       </c>
     </row>
     <row r="28">
